--- a/src/main/resources/excel/bill.xlsx
+++ b/src/main/resources/excel/bill.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FA182619-7685-4327-9E6F-8A858A91C763}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A20FED6B-3D8C-46F5-AAEC-729237BB841F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>提货日期</t>
   </si>
@@ -87,18 +87,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>重庆荣润物流有限公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHONGQING RONGRUN LOGISTICS CO.,LTD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">单价   </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>车牌号</t>
   </si>
   <si>
@@ -174,7 +162,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{{$fe:billMap1 t.serialNo</t>
+    <t>{{$fe:billMapOne t.serialNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -273,49 +261,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,33 +289,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -708,26 +643,13 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.875" style="7" customWidth="1"/>
+    <col min="2" max="17" width="20.625" style="7" customWidth="1"/>
     <col min="18" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -793,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>2</v>
@@ -827,56 +749,56 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -899,65 +821,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="26.875" style="7" customWidth="1"/>
+    <col min="2" max="17" width="20.625" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25">
-      <c r="A1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
@@ -985,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>2</v>
@@ -997,72 +906,72 @@
         <v>17</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="7" customFormat="1">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1072,5 +981,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/bill.xlsx
+++ b/src/main/resources/excel/bill.xlsx
@@ -3,20 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A20FED6B-3D8C-46F5-AAEC-729237BB841F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01C0FCE8-E054-44E4-A112-89E01C6B436F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="敏特" sheetId="4" r:id="rId1"/>
-    <sheet name="博帆科技" sheetId="5" r:id="rId2"/>
+    <sheet name="账单" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>提货日期</t>
   </si>
@@ -55,45 +54,41 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>装载车型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装载数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单价   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用合计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积/重量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
     <t>货物名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>装载车型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装载数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提货费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">单价   </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>送货费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用合计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积/重量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>车牌号</t>
-  </si>
-  <si>
-    <t>货物名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>t.trackingNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -159,10 +154,6 @@
   </si>
   <si>
     <t>{{$fe:billMap t.serialNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe:billMapOne t.serialNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,9 +282,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -642,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -654,46 +642,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
@@ -715,34 +703,34 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>3</v>
@@ -750,55 +738,55 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -809,178 +797,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="26.875" style="7" customWidth="1"/>
-    <col min="2" max="17" width="20.625" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="20.25">
-      <c r="A1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>